--- a/techniqo/data_new_ticker/ICICIGI.xlsx
+++ b/techniqo/data_new_ticker/ICICIGI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G734"/>
+  <dimension ref="A1:G736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26076,6 +26076,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1295.2</v>
+      </c>
+      <c r="E735" t="n">
+        <v>1304.5</v>
+      </c>
+      <c r="F735" t="n">
+        <v>665847</v>
+      </c>
+      <c r="G735" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E736" t="n">
+        <v>1316.3</v>
+      </c>
+      <c r="F736" t="n">
+        <v>294306</v>
+      </c>
+      <c r="G736" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ICICIGI.xlsx
+++ b/techniqo/data_new_ticker/ICICIGI.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G736"/>
+  <dimension ref="A1:G738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26126,6 +26126,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>1318.7</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1318.7</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1273.5</v>
+      </c>
+      <c r="E737" t="n">
+        <v>1281.5</v>
+      </c>
+      <c r="F737" t="n">
+        <v>353706</v>
+      </c>
+      <c r="G737" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>1293.15</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1325.45</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1257.45</v>
+      </c>
+      <c r="E738" t="n">
+        <v>1295.95</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1520695</v>
+      </c>
+      <c r="G738" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
